--- a/data/input/JP Morgan Rate Sheet_new.xlsx
+++ b/data/input/JP Morgan Rate Sheet_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="22755" windowHeight="9750"/>
+    <workbookView xWindow="960" yWindow="615" windowWidth="22515" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="page-1" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|3|1|1|We use two terms to explain how much interest we pay on your Chase deposit accounts.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|3|1|1|We use two terms to explain how much interest we pay on your Chase deposit accounts.</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|4|3|1|Interest Rate is the annualized percentage rate we pay you on your account, and does not reflect compound interest, which is any</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|4|3|1|Interest Rate is the annualized percentage rate we pay you on your account, and does not reflect compound interest, which is any</t>
         </r>
       </text>
     </comment>
@@ -52,9 +52,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|5|3|1|interest paid on the interest you've already earned.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|5|3|1|interest paid on the interest you've already earned.</t>
         </r>
       </text>
     </comment>
@@ -65,9 +65,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|6|3|1|Annual Percentage Yield (APY) is the annualized percentage rate we pay you on your account, and includes compound interest. The</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|6|3|1|Annual Percentage Yield (APY) is the annualized percentage rate we pay you on your account, and includes compound interest. The</t>
         </r>
       </text>
     </comment>
@@ -78,9 +78,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|7|3|1|APY may be higher than the Interest Rate due to compound interest.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|7|3|1|APY may be higher than the Interest Rate due to compound interest.</t>
         </r>
       </text>
     </comment>
@@ -91,9 +91,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|8|46|5|CHECKING ACCOUNTS &amp; SAVINGS ACCOUNTS</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|8|46|5|CHECKING ACCOUNTS &amp; SAVINGS ACCOUNTS</t>
         </r>
       </text>
     </comment>
@@ -104,9 +104,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|9|50|5|Checking and Savings interest is compounded and paid monthly.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|9|50|5|Checking and Savings interest is compounded and paid monthly.</t>
         </r>
       </text>
     </comment>
@@ -117,9 +117,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|10|13|2|Chase Premier Platinum Checking SM</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|10|13|2|Chase Premier Platinum Checking SM</t>
         </r>
       </text>
     </comment>
@@ -130,9 +130,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|10|119|5|Chase Premier Plus Checking SM</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|10|119|5|Chase Premier Plus Checking SM</t>
         </r>
       </text>
     </comment>
@@ -143,9 +143,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|1|1|Balance</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|1|1|Balance</t>
         </r>
       </text>
     </comment>
@@ -156,9 +156,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|53|2|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|53|2|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -169,9 +169,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|74|3|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|74|3|APY</t>
         </r>
       </text>
     </comment>
@@ -182,9 +182,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|87|4|Balance</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|87|4|Balance</t>
         </r>
       </text>
     </comment>
@@ -195,9 +195,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|161|5|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|161|5|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -208,9 +208,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|11|180|6|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|11|180|6|APY</t>
         </r>
       </text>
     </comment>
@@ -221,9 +221,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|1|1|$0–$24,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|1|1|$0–$24,999</t>
         </r>
       </text>
     </comment>
@@ -234,9 +234,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|56|2|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|56|2|0.01%</t>
         </r>
       </text>
     </comment>
@@ -247,9 +247,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -260,9 +260,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|87|4|$0–$4,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|87|4|$0–$4,999</t>
         </r>
       </text>
     </comment>
@@ -273,9 +273,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|164|5|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|164|5|0.01%</t>
         </r>
       </text>
     </comment>
@@ -286,9 +286,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|12|179|6|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|12|179|6|0.01%</t>
         </r>
       </text>
     </comment>
@@ -299,9 +299,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|1|1|$25,000–$49,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|1|1|$25,000–$49,999</t>
         </r>
       </text>
     </comment>
@@ -312,9 +312,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|56|2|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|56|2|0.01%</t>
         </r>
       </text>
     </comment>
@@ -325,9 +325,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -338,9 +338,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|87|4|$5,000–$9,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|87|4|$5,000–$9,999</t>
         </r>
       </text>
     </comment>
@@ -351,9 +351,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|164|5|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|164|5|0.01%</t>
         </r>
       </text>
     </comment>
@@ -364,9 +364,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|13|179|6|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|13|179|6|0.01%</t>
         </r>
       </text>
     </comment>
@@ -377,9 +377,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|1|1|50,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|1|1|50,000+</t>
         </r>
       </text>
     </comment>
@@ -390,9 +390,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|56|2|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|56|2|0.01%</t>
         </r>
       </text>
     </comment>
@@ -403,9 +403,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -416,9 +416,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|87|4|$10,000–$24,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|87|4|$10,000–$24,999</t>
         </r>
       </text>
     </comment>
@@ -429,9 +429,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|164|5|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|164|5|0.01%</t>
         </r>
       </text>
     </comment>
@@ -442,9 +442,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|14|179|6|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|14|179|6|0.01%</t>
         </r>
       </text>
     </comment>
@@ -455,9 +455,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|15|87|4|25,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|15|87|4|25,000+</t>
         </r>
       </text>
     </comment>
@@ -468,9 +468,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|15|164|5|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|15|164|5|0.01%</t>
         </r>
       </text>
     </comment>
@@ -481,9 +481,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|15|179|6|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|15|179|6|0.01%</t>
         </r>
       </text>
     </comment>
@@ -494,9 +494,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|16|32|2|Chase Premier Savings SM</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|16|32|2|Chase Premier Savings SM</t>
         </r>
       </text>
     </comment>
@@ -507,9 +507,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|16|137|5|Chase Savings SM</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|16|137|5|Chase Savings SM</t>
         </r>
       </text>
     </comment>
@@ -520,9 +520,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|17|1|1|To earn relationship rates your Chase Premier Savings needs to be linked to either a Chase Premier Plus</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|17|1|1|To earn relationship rates your Chase Premier Savings needs to be linked to either a Chase Premier Plus</t>
         </r>
       </text>
     </comment>
@@ -533,9 +533,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|17|122|4|Balance</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|17|122|4|Balance</t>
         </r>
       </text>
     </comment>
@@ -546,9 +546,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|17|161|5|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|17|161|5|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -559,9 +559,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|17|180|6|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|17|180|6|APY</t>
         </r>
       </text>
     </comment>
@@ -572,9 +572,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|18|1|1|Checking or Chase Premier Platinum Checking account with at least five customer-initiated transactions</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|18|1|1|Checking or Chase Premier Platinum Checking account with at least five customer-initiated transactions</t>
         </r>
       </text>
     </comment>
@@ -585,9 +585,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|18|122|4|All Your Balances</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|18|122|4|All Your Balances</t>
         </r>
       </text>
     </comment>
@@ -598,9 +598,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|18|164|5|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|18|164|5|0.01%</t>
         </r>
       </text>
     </comment>
@@ -611,9 +611,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|18|179|6|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|18|179|6|0.01%</t>
         </r>
       </text>
     </comment>
@@ -624,9 +624,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|19|1|1|each monthly statement period.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|19|1|1|each monthly statement period.</t>
         </r>
       </text>
     </comment>
@@ -637,9 +637,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|20|36|2|RELATIONSHIP RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|20|36|2|RELATIONSHIP RATES</t>
         </r>
       </text>
     </comment>
@@ -650,9 +650,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|20|72|3|STANDARD RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|20|72|3|STANDARD RATES</t>
         </r>
       </text>
     </comment>
@@ -663,9 +663,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|21|1|1|Balance</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|21|1|1|Balance</t>
         </r>
       </text>
     </comment>
@@ -676,9 +676,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|21|57|2|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|21|57|2|APY</t>
         </r>
       </text>
     </comment>
@@ -689,9 +689,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|21|70|3|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|21|70|3|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -702,9 +702,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|21|89|4|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|21|89|4|APY</t>
         </r>
       </text>
     </comment>
@@ -715,9 +715,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|22|1|1|$0–$9,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|22|1|1|$0–$9,999</t>
         </r>
       </text>
     </comment>
@@ -728,9 +728,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|22|56|2|0.04%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|22|56|2|0.04%</t>
         </r>
       </text>
     </comment>
@@ -741,9 +741,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|22|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|22|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -754,9 +754,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|22|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|22|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -767,9 +767,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|23|1|1|$10,000–$24,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|23|1|1|$10,000–$24,999</t>
         </r>
       </text>
     </comment>
@@ -780,9 +780,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|23|56|2|0.04%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|23|56|2|0.04%</t>
         </r>
       </text>
     </comment>
@@ -793,9 +793,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|23|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|23|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -806,9 +806,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|23|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|23|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -819,9 +819,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|24|1|1|$25,000–$49,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|24|1|1|$25,000–$49,999</t>
         </r>
       </text>
     </comment>
@@ -832,9 +832,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|24|56|2|0.04%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|24|56|2|0.04%</t>
         </r>
       </text>
     </comment>
@@ -845,9 +845,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|24|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|24|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -858,9 +858,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|24|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|24|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -871,9 +871,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|25|1|1|$50,000–$99,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|25|1|1|$50,000–$99,999</t>
         </r>
       </text>
     </comment>
@@ -884,9 +884,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|25|56|2|0.07%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|25|56|2|0.07%</t>
         </r>
       </text>
     </comment>
@@ -897,9 +897,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|25|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|25|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -910,9 +910,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|25|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|25|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -923,9 +923,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|26|1|1|$100,000–$249,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|26|1|1|$100,000–$249,999</t>
         </r>
       </text>
     </comment>
@@ -936,9 +936,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|26|56|2|0.08%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|26|56|2|0.08%</t>
         </r>
       </text>
     </comment>
@@ -949,9 +949,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|26|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|26|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -962,9 +962,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|26|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|26|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -975,9 +975,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|27|1|1|$250,000–$499,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|27|1|1|$250,000–$499,999</t>
         </r>
       </text>
     </comment>
@@ -988,9 +988,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|27|56|2|0.11%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|27|56|2|0.11%</t>
         </r>
       </text>
     </comment>
@@ -1001,9 +1001,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|27|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|27|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1014,9 +1014,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|27|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|27|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1027,9 +1027,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|28|1|1|$500,000–$999,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|28|1|1|$500,000–$999,999</t>
         </r>
       </text>
     </comment>
@@ -1040,9 +1040,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|28|56|2|0.11%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|28|56|2|0.11%</t>
         </r>
       </text>
     </comment>
@@ -1053,9 +1053,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|28|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|28|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1066,9 +1066,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|28|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|28|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1079,9 +1079,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|29|1|1|$1,000,000–$4,999,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|29|1|1|$1,000,000–$4,999,999</t>
         </r>
       </text>
     </comment>
@@ -1092,9 +1092,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|29|56|2|0.11%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|29|56|2|0.11%</t>
         </r>
       </text>
     </comment>
@@ -1105,9 +1105,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|29|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|29|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1118,9 +1118,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|29|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|29|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1131,9 +1131,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|30|1|1|$5,000,000–$9,999,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|30|1|1|$5,000,000–$9,999,999</t>
         </r>
       </text>
     </comment>
@@ -1144,9 +1144,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|30|56|2|0.11%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|30|56|2|0.11%</t>
         </r>
       </text>
     </comment>
@@ -1157,9 +1157,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|30|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|30|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1170,9 +1170,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|30|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|30|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1183,9 +1183,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|31|1|1|$10,000,000+1</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|31|1|1|$10,000,000+1</t>
         </r>
       </text>
     </comment>
@@ -1196,9 +1196,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|31|56|2|0.11%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|31|56|2|0.11%</t>
         </r>
       </text>
     </comment>
@@ -1209,9 +1209,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|31|73|3|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|31|73|3|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1222,9 +1222,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|31|88|4|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|31|88|4|0.01%</t>
         </r>
       </text>
     </comment>
@@ -1235,9 +1235,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|32|1|1|1At Chase's discretion, savings accounts with aggregated balances of $10,000,000 or more may be converted to a JPMorgan Private Client Savings Account or similar account.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|32|1|1|1At Chase's discretion, savings accounts with aggregated balances of $10,000,000 or more may be converted to a JPMorgan Private Client Savings Account or similar account.</t>
         </r>
       </text>
     </comment>
@@ -1248,9 +1248,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|33|1|1|Converted savings accounts may earn a lower interest rate and APY.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|33|1|1|Converted savings accounts may earn a lower interest rate and APY.</t>
         </r>
       </text>
     </comment>
@@ -1261,9 +1261,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|34|3|1|CERTIFICATES OF DEPOSIT (CD) &amp; RETIREMENT CDs (featured CD terms highlighted in the chart below)</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|34|3|1|CERTIFICATES OF DEPOSIT (CD) &amp; RETIREMENT CDs (featured CD terms highlighted in the chart below)</t>
         </r>
       </text>
     </comment>
@@ -1274,9 +1274,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|35|1|1|CD and Retirement CD relationship rates are available to customers with a linked Chase personal checking account. We no longer offer new Retirement CDs; however, existing</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|35|1|1|CD and Retirement CD relationship rates are available to customers with a linked Chase personal checking account. We no longer offer new Retirement CDs; however, existing</t>
         </r>
       </text>
     </comment>
@@ -1287,9 +1287,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|36|1|1|accounts may renew at the rates below. Interest is compounded daily and you may choose, depending on the term, to have your CD interest paid monthly, quarterly, semi-</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|36|1|1|accounts may renew at the rates below. Interest is compounded daily and you may choose, depending on the term, to have your CD interest paid monthly, quarterly, semi-</t>
         </r>
       </text>
     </comment>
@@ -1300,9 +1300,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|37|1|1|annually or annually and at maturity. The APY is based upon the maximum term of deposit for each maturity range. There is a penalty for early withdrawal.</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|37|1|1|annually or annually and at maturity. The APY is based upon the maximum term of deposit for each maturity range. There is a penalty for early withdrawal.</t>
         </r>
       </text>
     </comment>
@@ -1313,9 +1313,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|38|6|1|Featured Terms</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|38|6|1|Featured Terms</t>
         </r>
       </text>
     </comment>
@@ -1326,9 +1326,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|38|70|4|RELATIONSHIP RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|38|70|4|RELATIONSHIP RATES</t>
         </r>
       </text>
     </comment>
@@ -1339,9 +1339,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|38|163|8|STANDARD RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|38|163|8|STANDARD RATES</t>
         </r>
       </text>
     </comment>
@@ -1352,9 +1352,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|39|42|2|$1,000–$9,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|39|42|2|$1,000–$9,999</t>
         </r>
       </text>
     </comment>
@@ -1365,9 +1365,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|39|75|4|$10,000–$99,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|39|75|4|$10,000–$99,999</t>
         </r>
       </text>
     </comment>
@@ -1378,9 +1378,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|39|128|6|100,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|39|128|6|100,000+</t>
         </r>
       </text>
     </comment>
@@ -1391,9 +1391,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|39|170|8|1,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|39|170|8|1,000+</t>
         </r>
       </text>
     </comment>
@@ -1404,9 +1404,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|11|1|(Months)</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|11|1|(Months)</t>
         </r>
       </text>
     </comment>
@@ -1417,9 +1417,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|36|2|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|36|2|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -1430,9 +1430,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|57|3|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|57|3|APY</t>
         </r>
       </text>
     </comment>
@@ -1443,9 +1443,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|70|4|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|70|4|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -1456,9 +1456,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|89|5|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|89|5|APY</t>
         </r>
       </text>
     </comment>
@@ -1469,9 +1469,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|120|6|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|120|6|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -1482,9 +1482,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|140|7|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|140|7|APY</t>
         </r>
       </text>
     </comment>
@@ -1495,9 +1495,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|161|8|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|161|8|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -1508,9 +1508,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|40|180|9|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|40|180|9|APY</t>
         </r>
       </text>
     </comment>
@@ -1521,9 +1521,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|12|1|21-23</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|12|1|21-23</t>
         </r>
       </text>
     </comment>
@@ -1534,9 +1534,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|39|2|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|39|2|0.35%</t>
         </r>
       </text>
     </comment>
@@ -1547,9 +1547,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|56|3|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|56|3|0.35%</t>
         </r>
       </text>
     </comment>
@@ -1560,9 +1560,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|73|4|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|73|4|0.45%</t>
         </r>
       </text>
     </comment>
@@ -1573,9 +1573,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|88|5|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|88|5|0.45%</t>
         </r>
       </text>
     </comment>
@@ -1586,9 +1586,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|123|6|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|123|6|0.50%</t>
         </r>
       </text>
     </comment>
@@ -1599,9 +1599,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|138|7|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|138|7|0.50%</t>
         </r>
       </text>
     </comment>
@@ -1612,9 +1612,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|164|8|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|164|8|0.05%</t>
         </r>
       </text>
     </comment>
@@ -1625,9 +1625,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|41|179|9|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|41|179|9|0.05%</t>
         </r>
       </text>
     </comment>
@@ -1638,9 +1638,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|12|1|36-41</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|12|1|36-41</t>
         </r>
       </text>
     </comment>
@@ -1651,9 +1651,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|39|2|0.40%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|39|2|0.40%</t>
         </r>
       </text>
     </comment>
@@ -1664,9 +1664,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|56|3|0.40%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|56|3|0.40%</t>
         </r>
       </text>
     </comment>
@@ -1677,9 +1677,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|73|4|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|73|4|0.60%</t>
         </r>
       </text>
     </comment>
@@ -1690,9 +1690,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|88|5|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|88|5|0.60%</t>
         </r>
       </text>
     </comment>
@@ -1703,9 +1703,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|123|6|0.65%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|123|6|0.65%</t>
         </r>
       </text>
     </comment>
@@ -1716,9 +1716,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|138|7|0.65%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|138|7|0.65%</t>
         </r>
       </text>
     </comment>
@@ -1729,9 +1729,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|164|8|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|164|8|0.05%</t>
         </r>
       </text>
     </comment>
@@ -1742,9 +1742,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|42|179|9|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|42|179|9|0.05%</t>
         </r>
       </text>
     </comment>
@@ -1755,9 +1755,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|13|1|120</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|13|1|120</t>
         </r>
       </text>
     </comment>
@@ -1768,9 +1768,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|39|2|1.15%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|39|2|1.15%</t>
         </r>
       </text>
     </comment>
@@ -1781,9 +1781,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|56|3|1.16%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|56|3|1.16%</t>
         </r>
       </text>
     </comment>
@@ -1794,9 +1794,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|73|4|1.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|73|4|1.25%</t>
         </r>
       </text>
     </comment>
@@ -1807,9 +1807,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|88|5|1.26%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|88|5|1.26%</t>
         </r>
       </text>
     </comment>
@@ -1820,9 +1820,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|123|6|1.29%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|123|6|1.29%</t>
         </r>
       </text>
     </comment>
@@ -1833,9 +1833,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|138|7|1.30%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|138|7|1.30%</t>
         </r>
       </text>
     </comment>
@@ -1846,9 +1846,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|164|8|0.70%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|164|8|0.70%</t>
         </r>
       </text>
     </comment>
@@ -1859,9 +1859,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|43|179|9|0.70%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|43|179|9|0.70%</t>
         </r>
       </text>
     </comment>
@@ -1872,9 +1872,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|44|7|1|Other Terms</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|44|7|1|Other Terms</t>
         </r>
       </text>
     </comment>
@@ -1885,9 +1885,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|44|70|4|RELATIONSHIP RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|44|70|4|RELATIONSHIP RATES</t>
         </r>
       </text>
     </comment>
@@ -1898,9 +1898,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|44|163|8|STANDARD RATES</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|44|163|8|STANDARD RATES</t>
         </r>
       </text>
     </comment>
@@ -1911,9 +1911,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|45|42|2|$1,000–$9,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|45|42|2|$1,000–$9,999</t>
         </r>
       </text>
     </comment>
@@ -1924,9 +1924,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|45|75|4|$10,000–$99,999</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|45|75|4|$10,000–$99,999</t>
         </r>
       </text>
     </comment>
@@ -1937,9 +1937,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|45|128|6|100,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|45|128|6|100,000+</t>
         </r>
       </text>
     </comment>
@@ -1950,9 +1950,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|45|170|8|1,000+</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|45|170|8|1,000+</t>
         </r>
       </text>
     </comment>
@@ -1963,9 +1963,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|11|1|(Months)</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|11|1|(Months)</t>
         </r>
       </text>
     </comment>
@@ -1976,9 +1976,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|36|2|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|36|2|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -1989,9 +1989,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|57|3|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|57|3|APY</t>
         </r>
       </text>
     </comment>
@@ -2002,9 +2002,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|70|4|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|70|4|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -2015,9 +2015,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|89|5|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|89|5|APY</t>
         </r>
       </text>
     </comment>
@@ -2028,9 +2028,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|120|6|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|120|6|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -2041,9 +2041,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|140|7|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|140|7|APY</t>
         </r>
       </text>
     </comment>
@@ -2054,9 +2054,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|161|8|Interest Rate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|161|8|Interest Rate</t>
         </r>
       </text>
     </comment>
@@ -2067,9 +2067,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|46|180|9|APY</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|46|180|9|APY</t>
         </r>
       </text>
     </comment>
@@ -2080,9 +2080,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|10|1|1 (31 days)</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|10|1|1 (31 days)</t>
         </r>
       </text>
     </comment>
@@ -2093,9 +2093,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2106,9 +2106,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2119,9 +2119,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2132,9 +2132,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2145,9 +2145,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|123|6|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|123|6|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2158,9 +2158,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|138|7|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|138|7|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2171,9 +2171,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2184,9 +2184,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|47|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|47|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2197,9 +2197,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|15|1|2</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|15|1|2</t>
         </r>
       </text>
     </comment>
@@ -2210,9 +2210,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2223,9 +2223,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2236,9 +2236,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2249,9 +2249,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2262,9 +2262,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|123|6|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|123|6|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2275,9 +2275,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|138|7|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|138|7|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2288,9 +2288,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2301,9 +2301,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|48|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|48|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2314,9 +2314,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|13|1|3-5</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|13|1|3-5</t>
         </r>
       </text>
     </comment>
@@ -2327,9 +2327,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2340,9 +2340,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2353,9 +2353,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2366,9 +2366,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2379,9 +2379,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|123|6|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|123|6|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2392,9 +2392,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|138|7|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|138|7|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2405,9 +2405,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2418,9 +2418,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|49|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|49|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2431,9 +2431,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|13|1|6-8</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|13|1|6-8</t>
         </r>
       </text>
     </comment>
@@ -2444,9 +2444,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2457,9 +2457,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2470,9 +2470,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2483,9 +2483,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2496,9 +2496,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|123|6|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|123|6|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2509,9 +2509,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|138|7|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|138|7|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2522,9 +2522,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2535,9 +2535,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|50|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|50|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2548,9 +2548,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|13|1|9-11</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|13|1|9-11</t>
         </r>
       </text>
     </comment>
@@ -2561,9 +2561,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2574,9 +2574,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2587,9 +2587,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2600,9 +2600,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2613,9 +2613,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|123|6|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|123|6|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2626,9 +2626,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|138|7|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|138|7|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2639,9 +2639,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2652,9 +2652,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|51|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|51|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2665,9 +2665,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|12|1|12-14</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|12|1|12-14</t>
         </r>
       </text>
     </comment>
@@ -2678,9 +2678,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|39|2|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|39|2|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2691,9 +2691,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|56|3|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|56|3|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2704,9 +2704,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|73|4|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|73|4|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2717,9 +2717,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|88|5|0.02%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|88|5|0.02%</t>
         </r>
       </text>
     </comment>
@@ -2730,9 +2730,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|123|6|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|123|6|0.05%</t>
         </r>
       </text>
     </comment>
@@ -2743,9 +2743,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|138|7|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|138|7|0.05%</t>
         </r>
       </text>
     </comment>
@@ -2756,9 +2756,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2769,9 +2769,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|52|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|52|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2782,9 +2782,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|12|1|15-17</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|12|1|15-17</t>
         </r>
       </text>
     </comment>
@@ -2795,9 +2795,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|39|2|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|39|2|0.05%</t>
         </r>
       </text>
     </comment>
@@ -2808,9 +2808,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|56|3|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|56|3|0.05%</t>
         </r>
       </text>
     </comment>
@@ -2821,9 +2821,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|73|4|0.15%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|73|4|0.15%</t>
         </r>
       </text>
     </comment>
@@ -2834,9 +2834,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|88|5|0.15%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|88|5|0.15%</t>
         </r>
       </text>
     </comment>
@@ -2847,9 +2847,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|123|6|0.20%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|123|6|0.20%</t>
         </r>
       </text>
     </comment>
@@ -2860,9 +2860,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|138|7|0.20%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|138|7|0.20%</t>
         </r>
       </text>
     </comment>
@@ -2873,9 +2873,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|164|8|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|164|8|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2886,9 +2886,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|53|179|9|0.01%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|53|179|9|0.01%</t>
         </r>
       </text>
     </comment>
@@ -2899,9 +2899,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|12|1|18-20</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|12|1|18-20</t>
         </r>
       </text>
     </comment>
@@ -2912,9 +2912,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|39|2|0.15%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|39|2|0.15%</t>
         </r>
       </text>
     </comment>
@@ -2925,9 +2925,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|56|3|0.15%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|56|3|0.15%</t>
         </r>
       </text>
     </comment>
@@ -2938,9 +2938,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|73|4|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|73|4|0.25%</t>
         </r>
       </text>
     </comment>
@@ -2951,9 +2951,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|88|5|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|88|5|0.25%</t>
         </r>
       </text>
     </comment>
@@ -2964,9 +2964,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|123|6|0.30%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|123|6|0.30%</t>
         </r>
       </text>
     </comment>
@@ -2977,9 +2977,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|138|7|0.30%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|138|7|0.30%</t>
         </r>
       </text>
     </comment>
@@ -2990,9 +2990,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|164|8|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|164|8|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3003,9 +3003,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|54|179|9|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|54|179|9|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3016,9 +3016,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|12|1|24-29</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|12|1|24-29</t>
         </r>
       </text>
     </comment>
@@ -3029,9 +3029,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|39|2|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|39|2|0.35%</t>
         </r>
       </text>
     </comment>
@@ -3042,9 +3042,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|56|3|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|56|3|0.35%</t>
         </r>
       </text>
     </comment>
@@ -3055,9 +3055,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|73|4|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|73|4|0.45%</t>
         </r>
       </text>
     </comment>
@@ -3068,9 +3068,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|88|5|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|88|5|0.45%</t>
         </r>
       </text>
     </comment>
@@ -3081,9 +3081,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|123|6|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|123|6|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3094,9 +3094,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|138|7|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|138|7|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3107,9 +3107,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|164|8|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|164|8|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3120,9 +3120,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|55|179|9|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|55|179|9|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3133,9 +3133,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|12|1|30-35</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|12|1|30-35</t>
         </r>
       </text>
     </comment>
@@ -3146,9 +3146,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|39|2|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|39|2|0.35%</t>
         </r>
       </text>
     </comment>
@@ -3159,9 +3159,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|56|3|0.35%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|56|3|0.35%</t>
         </r>
       </text>
     </comment>
@@ -3172,9 +3172,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|73|4|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|73|4|0.45%</t>
         </r>
       </text>
     </comment>
@@ -3185,9 +3185,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|88|5|0.45%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|88|5|0.45%</t>
         </r>
       </text>
     </comment>
@@ -3198,9 +3198,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|123|6|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|123|6|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3211,9 +3211,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|138|7|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|138|7|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3224,9 +3224,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|164|8|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|164|8|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3237,9 +3237,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|56|179|9|0.05%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|56|179|9|0.05%</t>
         </r>
       </text>
     </comment>
@@ -3250,9 +3250,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|12|1|42-47</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|12|1|42-47</t>
         </r>
       </text>
     </comment>
@@ -3263,9 +3263,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|39|2|0.40%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|39|2|0.40%</t>
         </r>
       </text>
     </comment>
@@ -3276,9 +3276,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|56|3|0.40%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|56|3|0.40%</t>
         </r>
       </text>
     </comment>
@@ -3289,9 +3289,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|73|4|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|73|4|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3302,9 +3302,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|88|5|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|88|5|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3315,9 +3315,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|123|6|0.65%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|123|6|0.65%</t>
         </r>
       </text>
     </comment>
@@ -3328,9 +3328,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|138|7|0.65%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|138|7|0.65%</t>
         </r>
       </text>
     </comment>
@@ -3341,9 +3341,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|164|8|0.10%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|164|8|0.10%</t>
         </r>
       </text>
     </comment>
@@ -3354,9 +3354,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|57|179|9|0.10%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|57|179|9|0.10%</t>
         </r>
       </text>
     </comment>
@@ -3367,9 +3367,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|12|1|48-59</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|12|1|48-59</t>
         </r>
       </text>
     </comment>
@@ -3380,9 +3380,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|39|2|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|39|2|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3393,9 +3393,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|56|3|0.50%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|56|3|0.50%</t>
         </r>
       </text>
     </comment>
@@ -3406,9 +3406,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|73|4|0.70%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|73|4|0.70%</t>
         </r>
       </text>
     </comment>
@@ -3419,9 +3419,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|88|5|0.70%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|88|5|0.70%</t>
         </r>
       </text>
     </comment>
@@ -3432,9 +3432,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|123|6|0.75%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|123|6|0.75%</t>
         </r>
       </text>
     </comment>
@@ -3445,9 +3445,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|138|7|0.75%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|138|7|0.75%</t>
         </r>
       </text>
     </comment>
@@ -3458,9 +3458,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|164|8|0.10%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|164|8|0.10%</t>
         </r>
       </text>
     </comment>
@@ -3471,9 +3471,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|58|179|9|0.10%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|58|179|9|0.10%</t>
         </r>
       </text>
     </comment>
@@ -3484,9 +3484,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|12|1|60-83</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|12|1|60-83</t>
         </r>
       </text>
     </comment>
@@ -3497,9 +3497,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|39|2|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|39|2|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3510,9 +3510,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|56|3|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|56|3|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3523,9 +3523,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|73|4|0.80%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|73|4|0.80%</t>
         </r>
       </text>
     </comment>
@@ -3536,9 +3536,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|88|5|0.80%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|88|5|0.80%</t>
         </r>
       </text>
     </comment>
@@ -3549,9 +3549,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|123|6|0.85%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|123|6|0.85%</t>
         </r>
       </text>
     </comment>
@@ -3562,9 +3562,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|138|7|0.85%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|138|7|0.85%</t>
         </r>
       </text>
     </comment>
@@ -3575,9 +3575,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|164|8|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|164|8|0.25%</t>
         </r>
       </text>
     </comment>
@@ -3588,9 +3588,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|59|179|9|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|59|179|9|0.25%</t>
         </r>
       </text>
     </comment>
@@ -3601,9 +3601,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|12|1|84-119</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|12|1|84-119</t>
         </r>
       </text>
     </comment>
@@ -3614,9 +3614,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|39|2|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|39|2|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3627,9 +3627,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|56|3|0.60%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|56|3|0.60%</t>
         </r>
       </text>
     </comment>
@@ -3640,9 +3640,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|73|4|0.80%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|73|4|0.80%</t>
         </r>
       </text>
     </comment>
@@ -3653,9 +3653,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|88|5|0.80%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|88|5|0.80%</t>
         </r>
       </text>
     </comment>
@@ -3666,9 +3666,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|123|6|0.85%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|123|6|0.85%</t>
         </r>
       </text>
     </comment>
@@ -3679,9 +3679,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|138|7|0.85%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|138|7|0.85%</t>
         </r>
       </text>
     </comment>
@@ -3692,9 +3692,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|164|8|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|164|8|0.25%</t>
         </r>
       </text>
     </comment>
@@ -3705,9 +3705,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|60|179|9|0.25%</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|60|179|9|0.25%</t>
         </r>
       </text>
     </comment>
@@ -3718,9 +3718,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|61|1|1|A copy of Chase's Deposit Account Agreement is available upon request. Fees could reduce earnings. Rates and balance tiers for checking, savings, CDs and Retirement CDs are applicable as of</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|61|1|1|A copy of Chase's Deposit Account Agreement is available upon request. Fees could reduce earnings. Rates and balance tiers for checking, savings, CDs and Retirement CDs are applicable as of</t>
         </r>
       </text>
     </comment>
@@ -3731,9 +3731,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|62|1|1|the Effective Date, may change at Chase's discretion, and are available only for accounts opened in branches located in the following cities or regions:</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|62|1|1|the Effective Date, may change at Chase's discretion, and are available only for accounts opened in branches located in the following cities or regions:</t>
         </r>
       </text>
     </comment>
@@ -3744,9 +3744,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|63|91|1|New York - Downstate</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|63|91|1|New York - Downstate</t>
         </r>
       </text>
     </comment>
@@ -3757,9 +3757,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80213282018.pdf|1|64|1|1|© 2018 JPMorgan Chase Bank, N.A. Member FDIC</t>
+            <charset val="1"/>
+          </rPr>
+          <t>PDF_Text|C:\\Users\\doddsai\\Desktop\\RateSheetForCons80214112018.pdf|1|64|1|1|© 2018 JPMorgan Chase Bank, N.A. Member FDIC</t>
         </r>
       </text>
     </comment>
@@ -3768,7 +3768,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>We use two terms to explain how much interest we pay on your Chase deposit accounts.</t>
   </si>
@@ -3824,9 +3824,6 @@
     <t>$10,000–$24,999</t>
   </si>
   <si>
-    <t>25,000+</t>
-  </si>
-  <si>
     <t>Chase Premier Savings SM</t>
   </si>
   <si>
@@ -3941,9 +3938,6 @@
     <t>24-29</t>
   </si>
   <si>
-    <t>30-35</t>
-  </si>
-  <si>
     <t>42-47</t>
   </si>
   <si>
@@ -3966,6 +3960,15 @@
   </si>
   <si>
     <t>© 2018 JPMorgan Chase Bank, N.A. Member FDIC</t>
+  </si>
+  <si>
+    <t>$25,000+</t>
+  </si>
+  <si>
+    <t>$100,000+</t>
+  </si>
+  <si>
+    <t>$1,000+</t>
   </si>
 </sst>
 </file>
@@ -3984,7 +3987,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4022,11 +4025,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4330,7 +4334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4570,7 +4576,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2">
         <v>1E-4</v>
@@ -4585,12 +4591,12 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -4599,7 +4605,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4618,12 +4624,12 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
         <v>1E-4</v>
@@ -4637,7 +4643,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4651,10 +4657,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2">
         <v>4.0000000000000002E-4</v>
@@ -4703,7 +4709,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>4.0000000000000002E-4</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
         <v>4.0000000000000002E-4</v>
@@ -4741,7 +4747,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>6.9999999999999999E-4</v>
@@ -4760,7 +4766,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
         <v>8.0000000000000004E-4</v>
@@ -4779,7 +4785,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2">
         <v>1.1000000000000001E-3</v>
@@ -4798,7 +4804,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>1.1000000000000001E-3</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>1.1000000000000001E-3</v>
@@ -4836,7 +4842,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>1.1000000000000001E-3</v>
@@ -4855,7 +4861,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>1.1000000000000001E-3</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4887,7 +4893,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4900,7 +4906,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4926,7 +4932,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4939,7 +4945,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4952,43 +4958,43 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -5017,7 +5023,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>3.5000000000000001E-3</v>
@@ -5046,7 +5052,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>4.0000000000000001E-3</v>
@@ -5104,43 +5110,43 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>2.0000000000000001E-4</v>
@@ -5255,8 +5261,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>43259</v>
+      <c r="A50" s="4">
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>2.0000000000000001E-4</v>
@@ -5313,8 +5319,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>43448</v>
+      <c r="A52" s="4">
+        <v>12</v>
       </c>
       <c r="B52" s="2">
         <v>2.0000000000000001E-4</v>
@@ -5343,7 +5349,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>5.0000000000000001E-4</v>
@@ -5372,7 +5378,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>1.5E-3</v>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>3.5000000000000001E-3</v>
@@ -5429,8 +5435,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
+      <c r="A56" s="1">
+        <v>36</v>
       </c>
       <c r="B56" s="2">
         <v>3.5000000000000001E-3</v>
@@ -5459,7 +5465,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>4.0000000000000001E-3</v>
@@ -5488,7 +5494,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>5.0000000000000001E-3</v>
@@ -5517,7 +5523,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>6.0000000000000001E-3</v>
@@ -5546,7 +5552,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>6.0000000000000001E-3</v>
@@ -5575,7 +5581,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5588,7 +5594,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5601,12 +5607,12 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
